--- a/workspace/data/员工五险一金申报表.xlsx
+++ b/workspace/data/员工五险一金申报表.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_name=&quot;sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,19 +466,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>赖红梅</t>
+          <t>宋帅</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +487,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>杨佳</t>
+          <t>吴鹏</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="E3" t="n">
         <v>0.08</v>
@@ -508,19 +508,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>张平</t>
+          <t>何玲</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +529,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>张桂芳</t>
+          <t>邵玉英</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>刘丹</t>
+          <t>蔡金凤</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>大客户部</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>徐文</t>
+          <t>宋燕</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="E7" t="n">
         <v>0.08</v>
@@ -592,19 +592,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>李红</t>
+          <t>任华</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="E8" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +613,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>梁桂英</t>
+          <t>蒋军</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>39000</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +634,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>朱淑兰</t>
+          <t>余旭</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
@@ -655,19 +655,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>王桂芝</t>
+          <t>陈凯</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>漆建军</t>
+          <t>张杨</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>大客户部</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>杨秀珍</t>
+          <t>尹伟</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -718,16 +718,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>夏玉兰</t>
+          <t>石颖</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="E14" t="n">
         <v>0.1</v>
@@ -739,16 +739,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>汪娟</t>
+          <t>杨玉珍</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8000</v>
+        <v>37000</v>
       </c>
       <c r="E15" t="n">
         <v>0.12</v>
@@ -760,16 +760,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>李春梅</t>
+          <t>傅阳</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>大客户部</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31000</v>
+        <v>4000</v>
       </c>
       <c r="E16" t="n">
         <v>0.08</v>
@@ -781,19 +781,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黄丽丽</t>
+          <t>庄明</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
@@ -802,19 +802,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>胡淑珍</t>
+          <t>庄东</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>大客户部</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="E18" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
@@ -823,16 +823,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>张桂珍</t>
+          <t>卢小红</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>大客户部</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="E19" t="n">
         <v>0.08</v>
@@ -844,19 +844,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>李春梅</t>
+          <t>杨建平</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="E20" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
@@ -865,16 +865,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>姚红霞</t>
+          <t>韩丹</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="E21" t="n">
         <v>0.12</v>
@@ -886,7 +886,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>郭宁</t>
+          <t>贺龙</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="23">
@@ -907,16 +907,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>刘红霞</t>
+          <t>胡雷</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
@@ -928,16 +928,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>都红</t>
+          <t>王鑫</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>大客户部</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
@@ -949,16 +949,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>杨丽华</t>
+          <t>谢艳</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>刘倩</t>
+          <t>麦建平</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="E26" t="n">
         <v>0.08</v>
@@ -991,19 +991,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>吕婷</t>
+          <t>李倩</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="E27" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="28">
@@ -1012,19 +1012,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>李龙</t>
+          <t>王雷</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>大客户部</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29">
@@ -1033,19 +1033,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>吴春梅</t>
+          <t>熊彬</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>罗秀兰</t>
+          <t>张晨</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="31">
@@ -1075,19 +1075,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>仲芳</t>
+          <t>蒋晨</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>8000</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
@@ -1096,19 +1096,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>黄岩</t>
+          <t>王凤英</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>38000</v>
+        <v>13000</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33">
@@ -1117,16 +1117,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>张强</t>
+          <t>康金凤</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>大客户部</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>凌佳</t>
+          <t>王玉</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="35">
@@ -1159,19 +1159,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>赵浩</t>
+          <t>萧浩</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="E35" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -1180,16 +1180,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>刘超</t>
+          <t>张桂花</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>销售部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="E36" t="n">
         <v>0.1</v>
@@ -1201,16 +1201,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>刘璐</t>
+          <t>洪坤</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="E37" t="n">
         <v>0.1</v>
@@ -1222,19 +1222,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>周晨</t>
+          <t>林艳</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>销售部</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="E38" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="39">
@@ -1243,19 +1243,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>符红梅</t>
+          <t>梁红梅</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
@@ -1264,19 +1264,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>赵欢</t>
+          <t>雷兰英</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大客户部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="E40" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
@@ -1285,19 +1285,3379 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>吴淑兰</t>
+          <t>唐丽华</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>市场</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="D41" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>李冬梅</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>谷淑兰</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>张桂花</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>陈红霞</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>张玉</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>蒋红梅</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>路桂兰</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>郑东</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>张玉梅</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>王强</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>李春梅</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>白静</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>陶飞</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>方淑兰</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>张桂珍</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>37000</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>龙成</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>杨东</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>袁琴</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>27000</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>傅玉兰</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>刘玉梅</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>吕超</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>苏利</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>朱秀荣</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>吕桂香</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>李建军</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>柯军</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>刘飞</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>虞浩</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>林红</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>31000</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.08</v>
+      <c r="E70" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>王艳</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>幸秀荣</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>潘桂荣</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>袁婷</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>樊倩</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>鞠婷</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>杨春梅</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>孔桂珍</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>贺桂芝</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>叶敏</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>李超</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>鲁兵</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>吴玉兰</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>27000</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>宋红梅</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>王婷</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>温欢</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>19000</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>何丽丽</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>鹿小红</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>陈雷</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>周波</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>董桂英</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>翁想</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>31000</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>王玉梅</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>方晶</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>温彬</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>朱军</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>钟桂珍</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>童坤</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>陈超</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>姜淑华</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>潘文</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>周婷婷</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>潘峰</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>吴龙</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>蔡丽</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>郭辉</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>吕瑜</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>卢桂珍</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>陈桂芝</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>张小红</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>37000</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>许秀英</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>杨秀兰</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>钟岩</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>刘玉英</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>32000</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>郭超</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>刘俊</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>黄辉</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>吴瑜</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>张桂英</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>张林</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>赵利</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>刘秀华</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>陈瑞</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>郭瑜</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>杨兵</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>赫强</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>吴涛</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>曹红</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>张红霞</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>37000</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>林杨</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>陈淑兰</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>王倩</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>黄宁</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>赵玉英</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>阎建华</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>鞠秀英</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>范博</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>陈阳</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>31000</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>廖瑞</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>冉斌</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>彭红</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>侯辉</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>王俊</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>李勇</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>林桂荣</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>陈波</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>李颖</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>钟瑜</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>贾金凤</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>王红霞</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>任雪梅</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>张英</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>庄梅</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>王楠</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>曾雪</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>郭林</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>孙婷婷</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>潘丽华</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>李杰</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>余鑫</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>李斌</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>赵丽丽</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>雷红梅</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>蒋桂兰</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>何倩</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>梅阳</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>19000</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>周淑英</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>李建军</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>齐华</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>潘强</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>黄桂英</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>19000</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>王成</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>叶刚</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>黄建国</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>聂文</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>蒲萍</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>汤玉华</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>蔡丽华</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>白龙</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>牟健</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>揭莹</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>31000</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>张兰英</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>万飞</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>傅龙</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>张佳</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>白建国</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>赵淑珍</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>汤雪</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>尹淑珍</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>徐丽华</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>林丽华</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>销售部</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>卢鑫</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>张兵</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>郭凯</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>仝秀云</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>宋秀芳</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>邹阳</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>李婷婷</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>刘芳</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>刘峰</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>吴淑英</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
